--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Smo.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Smo.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.424396333333333</v>
+        <v>3.151228</v>
       </c>
       <c r="N2">
-        <v>4.273189</v>
+        <v>9.453684000000001</v>
       </c>
       <c r="O2">
-        <v>0.0427853215931652</v>
+        <v>0.1027676232988273</v>
       </c>
       <c r="P2">
-        <v>0.04278532159316519</v>
+        <v>0.1027676232988273</v>
       </c>
       <c r="Q2">
-        <v>0.03606191676977778</v>
+        <v>0.2768353798</v>
       </c>
       <c r="R2">
-        <v>0.324557250928</v>
+        <v>2.4915184182</v>
       </c>
       <c r="S2">
-        <v>0.0427853215931652</v>
+        <v>0.1027676232988273</v>
       </c>
       <c r="T2">
-        <v>0.04278532159316519</v>
+        <v>0.1027676232988273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>57.627724</v>
       </c>
       <c r="O3">
-        <v>0.576997812177782</v>
+        <v>0.6264504114587274</v>
       </c>
       <c r="P3">
-        <v>0.576997812177782</v>
+        <v>0.6264504114587273</v>
       </c>
       <c r="Q3">
-        <v>0.4863267659164444</v>
+        <v>1.687531851133333</v>
       </c>
       <c r="R3">
-        <v>4.376940893247999</v>
+        <v>15.1877866602</v>
       </c>
       <c r="S3">
-        <v>0.576997812177782</v>
+        <v>0.6264504114587274</v>
       </c>
       <c r="T3">
-        <v>0.576997812177782</v>
+        <v>0.6264504114587273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.557791</v>
+        <v>0.27146</v>
       </c>
       <c r="N4">
-        <v>1.673373</v>
+        <v>0.8143800000000001</v>
       </c>
       <c r="O4">
-        <v>0.0167546537141979</v>
+        <v>0.00885283420326922</v>
       </c>
       <c r="P4">
-        <v>0.0167546537141979</v>
+        <v>0.008852834203269218</v>
       </c>
       <c r="Q4">
-        <v>0.01412178067733333</v>
+        <v>0.023847761</v>
       </c>
       <c r="R4">
-        <v>0.127096026096</v>
+        <v>0.214629849</v>
       </c>
       <c r="S4">
-        <v>0.0167546537141979</v>
+        <v>0.00885283420326922</v>
       </c>
       <c r="T4">
-        <v>0.0167546537141979</v>
+        <v>0.008852834203269218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H5">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.32013133333333</v>
+        <v>7.293697999999999</v>
       </c>
       <c r="N5">
-        <v>33.96039399999999</v>
+        <v>21.881094</v>
       </c>
       <c r="O5">
-        <v>0.3400285778889249</v>
+        <v>0.2378615601661986</v>
       </c>
       <c r="P5">
-        <v>0.3400285778889249</v>
+        <v>0.2378615601661986</v>
       </c>
       <c r="Q5">
-        <v>0.286595538343111</v>
+        <v>0.6407513692999999</v>
       </c>
       <c r="R5">
-        <v>2.579359845087999</v>
+        <v>5.766762323699999</v>
       </c>
       <c r="S5">
-        <v>0.3400285778889249</v>
+        <v>0.2378615601661986</v>
       </c>
       <c r="T5">
-        <v>0.3400285778889249</v>
+        <v>0.2378615601661986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H6">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1514463333333333</v>
+        <v>0.2802906666666667</v>
       </c>
       <c r="N6">
-        <v>0.4543389999999999</v>
+        <v>0.8408720000000001</v>
       </c>
       <c r="O6">
-        <v>0.004549071016357357</v>
+        <v>0.009140819276224114</v>
       </c>
       <c r="P6">
-        <v>0.004549071016357356</v>
+        <v>0.009140819276224113</v>
       </c>
       <c r="Q6">
-        <v>0.00383421730311111</v>
+        <v>0.02462353506666667</v>
       </c>
       <c r="R6">
-        <v>0.03450795572799999</v>
+        <v>0.2216118156</v>
       </c>
       <c r="S6">
-        <v>0.004549071016357357</v>
+        <v>0.009140819276224114</v>
       </c>
       <c r="T6">
-        <v>0.004549071016357356</v>
+        <v>0.009140819276224113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H7">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6286993333333334</v>
+        <v>0.4577083333333333</v>
       </c>
       <c r="N7">
-        <v>1.886098</v>
+        <v>1.373125</v>
       </c>
       <c r="O7">
-        <v>0.01888456360957255</v>
+        <v>0.01492675159675341</v>
       </c>
       <c r="P7">
-        <v>0.01888456360957254</v>
+        <v>0.01492675159675341</v>
       </c>
       <c r="Q7">
-        <v>0.01591699058844444</v>
+        <v>0.04020967708333333</v>
       </c>
       <c r="R7">
-        <v>0.143252915296</v>
+        <v>0.36188709375</v>
       </c>
       <c r="S7">
-        <v>0.01888456360957255</v>
+        <v>0.01492675159675341</v>
       </c>
       <c r="T7">
-        <v>0.01888456360957254</v>
+        <v>0.01492675159675341</v>
       </c>
     </row>
   </sheetData>
